--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/UTAH_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/UTAH_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1224"/>
+  <dimension ref="A1:D1218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -1070,7 +1070,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C53">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C85">
@@ -1517,7 +1517,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C87">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C101">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C102">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C110">
@@ -2112,7 +2112,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C132">
@@ -2138,7 +2138,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2150,7 +2150,7 @@
         <v>113</v>
       </c>
       <c r="D134">
-        <v>0.009571404370658987</v>
+        <v>0.009571404370658988</v>
       </c>
     </row>
     <row r="135">
@@ -2189,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="138">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C149">
@@ -2363,7 +2363,7 @@
         <v>11</v>
       </c>
       <c r="D150">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="151">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C160">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C163">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C170">
@@ -2707,12 +2707,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C177">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C180">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C181">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C186">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C190">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C193">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C198">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C202">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C216">
@@ -3330,13 +3330,13 @@
         <v>11</v>
       </c>
       <c r="D224">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C226">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C227">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C237">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C247">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C253">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C255">
@@ -3868,13 +3868,13 @@
         <v>11</v>
       </c>
       <c r="D265">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C266">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C268">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C275">
@@ -4121,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C285">
@@ -4173,7 +4173,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C289">
@@ -4199,14 +4199,14 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C291">
         <v>11</v>
       </c>
       <c r="D291">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="292">
@@ -4219,13 +4219,13 @@
         <v>11</v>
       </c>
       <c r="D292">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C293">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C294">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C296">
@@ -4303,7 +4303,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C299">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C313">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C319">
@@ -4614,7 +4614,7 @@
         <v>11</v>
       </c>
       <c r="D322">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C325">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C328">
@@ -4698,7 +4698,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C329">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C336">
@@ -4815,14 +4815,14 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C338">
         <v>11</v>
       </c>
       <c r="D338">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C340">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C343">
@@ -5004,7 +5004,7 @@
         <v>108</v>
       </c>
       <c r="D352">
-        <v>0.009147890902930713</v>
+        <v>0.009147890902930712</v>
       </c>
     </row>
     <row r="353">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C356">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C358">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C360">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C362">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C365">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C366">
@@ -5301,7 +5301,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C375">
@@ -5353,7 +5353,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C379">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C380">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C383">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C389">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C391">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C398">
@@ -5639,7 +5639,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C401">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C404">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C407">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C409">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C410">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C416">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C417">
@@ -5860,7 +5860,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C418">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C420">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C426">
@@ -6021,14 +6021,14 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C430">
         <v>11</v>
       </c>
       <c r="D430">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="431">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C433">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C439">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C444">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C450">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C457">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C458">
@@ -6398,7 +6398,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C459">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C468">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C475">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C482">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C484">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C485">
@@ -6775,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C488">
@@ -6788,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C489">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C496">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C499">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C500">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C509">
@@ -7061,7 +7061,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C510">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C515">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C516">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C521">
@@ -7508,7 +7508,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C544">
@@ -7554,7 +7554,7 @@
         <v>11</v>
       </c>
       <c r="D547">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="548">
@@ -7723,7 +7723,7 @@
         <v>11</v>
       </c>
       <c r="D560">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="561">
@@ -8301,7 +8301,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C605">
@@ -8618,7 +8618,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C629">
@@ -8709,7 +8709,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C636">
@@ -8748,7 +8748,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C639">
@@ -8768,7 +8768,7 @@
         <v>11</v>
       </c>
       <c r="D640">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="641">
@@ -8800,7 +8800,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C643">
@@ -8916,7 +8916,7 @@
         <v>11</v>
       </c>
       <c r="D651">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="652">
@@ -8935,7 +8935,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C653">
@@ -8948,7 +8948,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C654">
@@ -8987,7 +8987,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C657">
@@ -9065,7 +9065,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C663">
@@ -9187,7 +9187,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C672">
@@ -9213,7 +9213,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C674">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C676">
@@ -9283,7 +9283,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C679">
@@ -9309,7 +9309,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C681">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C683">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C689">
@@ -9426,7 +9426,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C690">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C691">
@@ -9517,7 +9517,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C697">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C698">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C700">
@@ -9569,7 +9569,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C701">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C704">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C715">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C727">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C752">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C755">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C759">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C767">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C785">
@@ -10726,7 +10726,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C790">
@@ -10739,7 +10739,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C791">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C792">
@@ -10765,7 +10765,7 @@
     <row r="793">
       <c r="B793" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C793">
@@ -10778,20 +10778,20 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C794">
         <v>11</v>
       </c>
       <c r="D794">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C795">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C796">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C797">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C798">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C800">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C827">
@@ -11342,7 +11342,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C837">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C840">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C843">
@@ -11485,7 +11485,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C848">
@@ -11576,7 +11576,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C855">
@@ -11732,7 +11732,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C867">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C872">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C879">
@@ -11940,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C883">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C884">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C889">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C895">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C900">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C906">
@@ -12270,7 +12270,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C908">
@@ -12322,7 +12322,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C912">
@@ -12361,7 +12361,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C915">
@@ -12501,7 +12501,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C925">
@@ -12579,7 +12579,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C931">
@@ -12644,7 +12644,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C936">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C938">
@@ -12696,7 +12696,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C940">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C945">
@@ -13356,7 +13356,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C990">
@@ -13711,7 +13711,7 @@
         <v>11</v>
       </c>
       <c r="D1016">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="1017">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1022">
@@ -13813,7 +13813,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13904,7 +13904,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1031">
@@ -13917,7 +13917,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1032">
@@ -13937,7 +13937,7 @@
         <v>11</v>
       </c>
       <c r="D1033">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="1034">
@@ -13956,7 +13956,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1035">
@@ -13969,7 +13969,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1036">
@@ -13995,7 +13995,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1038">
@@ -14034,7 +14034,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1041">
@@ -14202,7 +14202,7 @@
         <v>11</v>
       </c>
       <c r="D1053">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="1054">
@@ -14234,7 +14234,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1056">
@@ -14286,7 +14286,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14325,7 +14325,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1063">
@@ -14423,7 +14423,7 @@
         <v>11</v>
       </c>
       <c r="D1070">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="1071">
@@ -14455,7 +14455,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1073">
@@ -14624,7 +14624,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1086">
@@ -14637,7 +14637,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1087">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1089">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1090">
@@ -14780,7 +14780,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1098">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1104">
@@ -14884,7 +14884,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1106">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1117">
@@ -15053,7 +15053,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1119">
@@ -15144,7 +15144,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1126">
@@ -15157,7 +15157,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1127">
@@ -15417,7 +15417,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1147">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1154">
@@ -15830,7 +15830,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1178">
@@ -15856,7 +15856,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1180">
@@ -15869,7 +15869,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1181">
@@ -16025,7 +16025,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1193">
@@ -16064,7 +16064,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1196">
@@ -16077,7 +16077,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1197">
@@ -16090,7 +16090,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1198">
@@ -16201,7 +16201,7 @@
         <v>11</v>
       </c>
       <c r="D1206">
-        <v>0.0009317296290022023</v>
+        <v>0.0009317296290022024</v>
       </c>
     </row>
     <row r="1207">
@@ -16220,7 +16220,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1208">
@@ -16233,7 +16233,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1209">
@@ -16272,7 +16272,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1212">
@@ -16358,41 +16358,6 @@
       </c>
       <c r="D1218">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
